--- a/media/zakitov_download_ur.xlsx
+++ b/media/zakitov_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFE90C6-F9A8-A145-878D-94C2479B3EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB507A-CDD2-C04C-A0C0-F40E10718F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1740" windowWidth="27840" windowHeight="16740" xr2:uid="{B2142904-991E-8346-A7E2-EABB1F693248}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -92,22 +92,28 @@
     <t>Сумма в месяц</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>"Согласовано"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОО "Кузет Сенiм" </t>
-  </si>
-  <si>
-    <t>АКТ сверки по юридическим лицам за май 2024 г.</t>
-  </si>
-  <si>
-    <t>Наименование и месторасположение объекта</t>
-  </si>
-  <si>
-    <t>Наименование</t>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Согласовано"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОО "Кузет-Сенiм" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>АКТ сверки по физическим лицам за май 2024 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование </t>
+  </si>
+  <si>
+    <t>Сумма за  реагирование и      наблюдение в месяц</t>
+  </si>
+  <si>
+    <t>Сумма аренды РПО/GSM в месяц</t>
   </si>
 </sst>
 </file>
@@ -185,48 +191,51 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="14"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="18"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,20 +248,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,37 +276,81 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -318,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,98 +401,80 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -766,242 +789,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598249F4-8A28-8C4D-A2EB-87F46AFF7A4D}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="46"/>
+    <col min="3" max="3" width="41.33203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="46" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="46"/>
+    <col min="8" max="8" width="14.1640625" style="46" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="46"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="M1" s="3"/>
-      <c r="N1" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="N1" s="9"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="16"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="47" t="s">
+      <c r="N5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="O5" s="44"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="14"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="37">
-        <v>31</v>
-      </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="40" t="s">
+    </row>
+    <row r="7" spans="1:16" customFormat="1" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="D9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="E9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="F9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="G9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="H9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="I9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="J9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="K9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="20" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="10" spans="1:16" s="43" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" s="43" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" s="43" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" s="43" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" spans="1:16" s="43" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="1:16" s="43" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="D7:M7"/>
+  <mergeCells count="2">
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/zakitov_download_ur.xlsx
+++ b/media/zakitov_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB507A-CDD2-C04C-A0C0-F40E10718F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20A21C9-73D7-514C-A8CB-B3CC5B210D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1740" windowWidth="27840" windowHeight="16740" xr2:uid="{B2142904-991E-8346-A7E2-EABB1F693248}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование </t>
@@ -468,13 +465,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -791,18 +788,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598249F4-8A28-8C4D-A2EB-87F46AFF7A4D}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="46"/>
-    <col min="3" max="3" width="41.33203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="46" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="46"/>
-    <col min="8" max="8" width="14.1640625" style="46" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="46"/>
+    <col min="1" max="2" width="10.83203125" style="44"/>
+    <col min="3" max="3" width="41.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="44" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="44"/>
+    <col min="8" max="8" width="14.1640625" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -907,10 +904,10 @@
       <c r="K5" s="22"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="45"/>
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -932,24 +929,22 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" customFormat="1" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
@@ -977,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>4</v>
@@ -1004,10 +999,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>25</v>
       </c>
       <c r="N9" s="38" t="s">
         <v>16</v>
